--- a/biology/Médecine/Hypolipémiant/Hypolipémiant.xlsx
+++ b/biology/Médecine/Hypolipémiant/Hypolipémiant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypolip%C3%A9miant</t>
+          <t>Hypolipémiant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hypolipémiant (ou hypolipidémiant) est un médicament dont l'action thérapeutique vise à diminuer les lipides (triglycérides et/ou cholestérol) circulant dans le sang.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypolip%C3%A9miant</t>
+          <t>Hypolipémiant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parmi les hypolipémiants synthétiques
-Les fibrates (dérivés de l'acide fibrique).
+          <t>Parmi les hypolipémiants synthétiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les fibrates (dérivés de l'acide fibrique).
 Les résines échangeuses d'anions.
 Les statines.
 L’ézétimibe.
 Les anti PCSK9 : alirocumab, évolocumab, inclisiran.
-Les anti ANGPTL3 : evinacumab.
-Parmi les hypolipémiants naturels
-Les acides gras oméga-3.
-L'ail cultivé[1].
+Les anti ANGPTL3 : evinacumab.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypolipémiant</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolip%C3%A9miant</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples d'hypolipémiants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parmi les hypolipémiants naturels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les acides gras oméga-3.
+L'ail cultivé.
 Le psyllium (possibilité d'augmenter légèrement l'effet obtenu par une statine)[réf. souhaitée].
 L'acide nicotinique (réduit les acides gras plasmatiques en inhibant la sécrétion des VLDL)[réf. souhaitée].
 Seules certaines statines auraient montré leur efficacité dans la prévention primaire et secondaire des accidents cardio-vasculaires notamment l'infarctus du myocarde et les accidents vasculaires cérébraux[réf. nécessaire].
